--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail11 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>9.602414344918111e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.459731248681888</v>
+        <v>6.245465568973778e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.73991819880906</v>
+        <v>6.330357958118312e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.245465568973778e-06</v>
+        <v>-0.1055680127853359</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.330357958118312e-06</v>
+        <v>0.2951536313169317</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1055680127853359</v>
+        <v>0.09803226949301309</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2951536313169317</v>
+        <v>1.820290018555347</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09803226949301309</v>
+        <v>1.689299190265333</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.793339227432164</v>
+        <v>3.897738999966547</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.689299190265333</v>
+        <v>8.889863494230254e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.897738999966547</v>
+        <v>56115223.82376764</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.889863494230254e-15</v>
+        <v>2.102169278721063e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>56115223.82376764</v>
+        <v>27.99345423967426</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.102169278721063e-06</v>
+        <v>0.0002054695296896541</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>27.99345423967426</v>
+        <v>9.727059411931828</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002054695296896541</v>
+        <v>1.526726622298683</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.727059411931828</v>
+        <v>0.01944064025778865</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.526726622298683</v>
+        <v>2.845557081145951</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01944064025778865</v>
+        <v>0.9597821827197203</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.845557081145951</v>
+        <v>1.590716306022003</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9597821827197203</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.590716306022003</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2059729832819098</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>7.217742598764082e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.303555207363222</v>
+        <v>4.677300220942331e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.88374697803294</v>
+        <v>6.242593439940222e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.677300220942331e-06</v>
+        <v>-0.104856428783329</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.242593439940222e-06</v>
+        <v>0.2889063441801188</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.104856428783329</v>
+        <v>0.09424023239926643</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2889063441801188</v>
+        <v>1.823294491053596</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09424023239926643</v>
+        <v>1.688596749183447</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.795453840515291</v>
+        <v>4.79402844452146</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.688596749183447</v>
+        <v>5.791954830658156e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.79402844452146</v>
+        <v>86203121.47626115</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.791954830658156e-15</v>
+        <v>1.369595190846235e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>86203121.47626115</v>
+        <v>43.03988980544562</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.369595190846235e-06</v>
+        <v>0.0001564662140910992</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>43.03988980544562</v>
+        <v>9.054574247897383</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001564662140910992</v>
+        <v>1.490253493497892</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.054574247897383</v>
+        <v>0.01282793181949503</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.490253493497892</v>
+        <v>3.179997081699921</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01282793181949503</v>
+        <v>0.9587308997471942</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.179997081699921</v>
+        <v>1.616143317993828</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587308997471942</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.616143317993828</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2634961565539242</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>5.491840590950844e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.063540738867895</v>
+        <v>3.531313247320153e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10.62037275194977</v>
+        <v>6.176815783401185e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.531313247320153e-06</v>
+        <v>-0.1038070846839097</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.176815783401185e-06</v>
+        <v>0.2811960018351203</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1038070846839097</v>
+        <v>0.08964335495016632</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2811960018351203</v>
+        <v>1.836801860375581</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08964335495016632</v>
+        <v>1.84925504837792</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.816920356774684</v>
+        <v>4.158827210573935</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.84925504837792</v>
+        <v>3.34441741995738e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.158827210573935</v>
+        <v>146224722.2132746</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.34441741995738e-15</v>
+        <v>8.093554595155662e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>146224722.2132746</v>
+        <v>71.50922756347609</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.093554595155662e-07</v>
+        <v>0.0001140206732044932</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>71.50922756347609</v>
+        <v>9.722490500145783</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001140206732044932</v>
+        <v>1.20787334188738</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.722490500145783</v>
+        <v>0.01077801182620993</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.20787334188738</v>
+        <v>3.25168657083297</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01077801182620993</v>
+        <v>0.9589406112051982</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.25168657083297</v>
+        <v>1.581085834400126</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9589406112051982</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.581085834400126</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3394518560942139</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>4.250967762387716e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.702769145566867</v>
+        <v>2.686213567003547e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.7376575295773</v>
+        <v>6.127040080631042e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.686213567003547e-06</v>
+        <v>-0.1019032699391638</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.127040080631042e-06</v>
+        <v>0.2704477787639351</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1019032699391638</v>
+        <v>0.08333654109609229</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2704477787639351</v>
+        <v>1.857656450073781</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08333654109609229</v>
+        <v>2.114209236468002</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.852262388550286</v>
+        <v>4.155353024109271</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.114209236468002</v>
+        <v>3.11268290033006e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.155353024109271</v>
+        <v>156947009.9903818</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.11268290033006e-15</v>
+        <v>7.562244101232482e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>156947009.9903818</v>
+        <v>76.67273804606232</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.562244101232482e-07</v>
+        <v>0.0001012264953675462</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>76.67273804606232</v>
+        <v>8.967607648344387</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001012264953675462</v>
+        <v>1.26847669756832</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.967607648344387</v>
+        <v>0.008140430981907209</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.26847669756832</v>
+        <v>3.458249763660583</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008140430981907209</v>
+        <v>0.9585093711921693</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.458249763660583</v>
+        <v>1.502505251769733</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9585093711921693</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.502505251769733</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3620493879517113</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>3.379370127871672e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.224498691058739</v>
+        <v>2.0544981371682e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6.302939123280641</v>
+        <v>6.089103262954743e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.0544981371682e-06</v>
+        <v>-0.09806538708458604</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.089103262954743e-06</v>
+        <v>0.2526302988110543</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.09806538708458604</v>
+        <v>0.07327289011982067</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2526302988110543</v>
+        <v>1.859257211427167</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07327289011982067</v>
+        <v>1.981670117839482</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.852813991849048</v>
+        <v>4.272695718200221</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.981670117839482</v>
+        <v>2.944060975454564e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.272695718200221</v>
+        <v>158789319.8627874</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.944060975454564e-15</v>
+        <v>7.468828129936092e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>158789319.8627874</v>
+        <v>74.23169505176504</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.468828129936092e-07</v>
+        <v>9.587564070181068e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>74.23169505176504</v>
+        <v>8.113125739761118</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.587564070181068e-05</v>
+        <v>1.52935621852893</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.113125739761118</v>
+        <v>0.006310804011475178</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.52935621852893</v>
+        <v>3.636195668508874</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006310804011475178</v>
+        <v>0.959156028865162</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.636195668508874</v>
+        <v>1.520721709457949</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.959156028865162</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.520721709457949</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4191833401259173</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>2.788216364308867e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.701886605985765</v>
+        <v>1.588902831154369e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.81084548262699</v>
+        <v>6.059920472161704e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.588902831154369e-06</v>
+        <v>-0.0920962658324941</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.059920472161704e-06</v>
+        <v>0.2291316086126466</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0920962658324941</v>
+        <v>0.06085325399483533</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2291316086126466</v>
+        <v>1.851003939784995</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06085325399483533</v>
+        <v>1.897037070548039</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.849937675815289</v>
+        <v>4.668048185303382</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.897037070548039</v>
+        <v>2.466494042444323e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.668048185303382</v>
+        <v>188952540.7692754</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.466494042444323e-15</v>
+        <v>6.242492426063435e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>188952540.7692754</v>
+        <v>88.06139135571202</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.242492426063435e-07</v>
+        <v>9.389270885581522e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>88.06139135571202</v>
+        <v>8.141000624341201</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.389270885581522e-05</v>
+        <v>1.74828235891873</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.141000624341201</v>
+        <v>0.006222822953364225</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.74828235891873</v>
+        <v>3.693130128132467</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006222822953364225</v>
+        <v>0.9592832396109516</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.693130128132467</v>
+        <v>1.518753078747169</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9592832396109516</v>
+        <v>30</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.518753078747169</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.5423512806466619</v>
       </c>
     </row>
@@ -4775,72 +4727,66 @@
         <v>2.399974707439894e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.240436573453701</v>
+        <v>1.253520936478899e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.824451760194398</v>
+        <v>6.037092200723487e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.253520936478899e-06</v>
+        <v>-0.08470402593210644</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.037092200723487e-06</v>
+        <v>0.2055226340658553</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.08470402593210644</v>
+        <v>0.04932702273000264</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2055226340658553</v>
+        <v>1.85865358028932</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04932702273000264</v>
+        <v>1.933923340082629</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.855535649342802</v>
+        <v>4.656725084195783</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.933923340082629</v>
+        <v>1.848641254100193e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.656725084195783</v>
+        <v>254547550.7469271</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.848641254100193e-15</v>
+        <v>4.64736804515126e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>254547550.7469271</v>
+        <v>119.7817036429651</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.64736804515126e-07</v>
+        <v>8.704399892929554e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>119.7817036429651</v>
+        <v>7.571577234355765</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.704399892929554e-05</v>
+        <v>1.748193663890904</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.571577234355765</v>
+        <v>0.004990126422993574</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.748193663890904</v>
+        <v>3.673462408115794</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004990126422993574</v>
+        <v>0.9595707586510831</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.673462408115794</v>
+        <v>1.494780403402939</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9595707586510831</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.494780403402939</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7039707851667746</v>
       </c>
     </row>
@@ -4855,72 +4801,66 @@
         <v>2.147383193533352e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9004793652771925</v>
+        <v>1.022274331372217e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.5257427987839796</v>
+        <v>6.018742435553294e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.022274331372217e-06</v>
+        <v>-0.07749639622567454</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.018742435553294e-06</v>
+        <v>0.1900232700305932</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.07749639622567454</v>
+        <v>0.04206604371675352</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1900232700305932</v>
+        <v>1.863698876060271</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04206604371675352</v>
+        <v>1.979004237341282</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.858595097053265</v>
+        <v>4.383094752176778</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.979004237341282</v>
+        <v>1.708674907750809e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.383094752176778</v>
+        <v>276155565.4559861</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.708674907750809e-15</v>
+        <v>4.297158527453187e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>276155565.4559861</v>
+        <v>130.3067886805209</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.297158527453187e-07</v>
+        <v>9.239674817636281e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>130.3067886805209</v>
+        <v>6.825269224387756</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.239674817636281e-05</v>
+        <v>1.425436816251545</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.825269224387756</v>
+        <v>0.004304237834720802</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.425436816251545</v>
+        <v>3.495124887723408</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.004304237834720802</v>
+        <v>0.9613857566761053</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.495124887723408</v>
+        <v>1.538770332739873</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9613857566761053</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.538770332739873</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.8583432321248126</v>
       </c>
     </row>
@@ -4935,72 +4875,66 @@
         <v>1.976973822451249e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.669782461593822</v>
+        <v>8.661407624911481e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.282934780118377</v>
+        <v>6.003438864329756e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.661407624911481e-07</v>
+        <v>-0.07138922094158515</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.003438864329756e-06</v>
+        <v>0.1845958930280855</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07138922094158515</v>
+        <v>0.03914338034966783</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1845958930280855</v>
+        <v>1.88308068691715</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03914338034966783</v>
+        <v>2.0215139638208</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.897147681552116</v>
+        <v>4.452453481878943</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.0215139638208</v>
+        <v>1.750543241157219e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.452453481878943</v>
+        <v>269425357.5002274</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.750543241157219e-15</v>
+        <v>4.415371612091567e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>269425357.5002274</v>
+        <v>127.0719746004599</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.415371612091567e-07</v>
+        <v>0.0001132159898990799</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>127.0719746004599</v>
+        <v>8.271390677918564</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001132159898990799</v>
+        <v>1.656075614989436</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.271390677918564</v>
+        <v>0.00774577426752939</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.656075614989436</v>
+        <v>3.489370340831576</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00774577426752939</v>
+        <v>0.9605761159266191</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.489370340831576</v>
+        <v>1.411192816058302</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9605761159266191</v>
+        <v>29</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.411192816058302</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.07086693058918</v>
       </c>
     </row>
@@ -5015,72 +4949,66 @@
         <v>1.857287188035409e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5264851523744531</v>
+        <v>7.492185097199556e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7727734948402198</v>
+        <v>5.990359525388469e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.492185097199556e-07</v>
+        <v>-0.06525318483572348</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.990359525388469e-06</v>
+        <v>0.1829617223228464</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06525318483572348</v>
+        <v>0.03771377105067807</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1829617223228464</v>
+        <v>1.889107707577149</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03771377105067807</v>
+        <v>2.219517260932482</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.911653085066372</v>
+        <v>4.335311565916737</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.219517260932482</v>
+        <v>1.531000798506033e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.335311565916737</v>
+        <v>307446080.9042659</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.531000798506033e-15</v>
+        <v>3.872970204925258e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>307446080.9042659</v>
+        <v>144.7149303449135</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.872970204925258e-07</v>
+        <v>9.855962046789607e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>144.7149303449135</v>
+        <v>7.093381569204995</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9.855962046789607e-05</v>
+        <v>1.525267676273091</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.093381569204995</v>
+        <v>0.004959131982668481</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.525267676273091</v>
+        <v>3.641212413596183</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.004959131982668481</v>
+        <v>0.9613012394005331</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.641212413596183</v>
+        <v>1.357075588811534</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9613012394005331</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.357075588811534</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.248796087815973</v>
       </c>
     </row>
@@ -5095,72 +5023,66 @@
         <v>1.770859591493285e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4564374307154227</v>
+        <v>6.592659134508004e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.032213743515882</v>
+        <v>5.979108912004506e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.592659134508004e-07</v>
+        <v>-0.05887068651947191</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.979108912004506e-06</v>
+        <v>0.1838050877058876</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05887068651947191</v>
+        <v>0.03723685343311199</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1838050877058876</v>
+        <v>1.898479558142075</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03723685343311199</v>
+        <v>1.986885019817495</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.923328636939777</v>
+        <v>4.594492074412532</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.986885019817495</v>
+        <v>1.804249538764102e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.594492074412532</v>
+        <v>269905035.2378904</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.804249538764102e-15</v>
+        <v>4.433395442858885e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>269905035.2378904</v>
+        <v>131.4372839779306</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.433395442858885e-07</v>
+        <v>0.0001041992881877574</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>131.4372839779306</v>
+        <v>8.5631236549801</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001041992881877574</v>
+        <v>1.184137181427962</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.5631236549801</v>
+        <v>0.007640630242197943</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.184137181427962</v>
+        <v>3.591156279839094</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007640630242197943</v>
+        <v>0.960386014955666</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.591156279839094</v>
+        <v>1.301483372065478</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.960386014955666</v>
+        <v>29</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.301483372065478</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.215724772040071</v>
       </c>
     </row>
@@ -5175,72 +5097,66 @@
         <v>1.705590924650181e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4425301760571514</v>
+        <v>5.866221781865575e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.134263022685175</v>
+        <v>5.969476760232306e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.866221781865575e-07</v>
+        <v>-0.05188322442088042</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.969476760232306e-06</v>
+        <v>0.1863026373468607</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05188322442088042</v>
+        <v>0.03738900603271787</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1863026373468607</v>
+        <v>1.897619274647394</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03738900603271787</v>
+        <v>2.098087658199064</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.926676056082128</v>
+        <v>4.567061625281279</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.098087658199064</v>
+        <v>1.659426840770635e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.567061625281279</v>
+        <v>293767447.6046594</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.659426840770635e-15</v>
+        <v>4.068626306348288e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>293767447.6046594</v>
+        <v>143.2073967838897</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.068626306348288e-07</v>
+        <v>0.000158415134790796</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>143.2073967838897</v>
+        <v>11.95925622940793</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000158415134790796</v>
+        <v>1.065211358852663</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.95925622940793</v>
+        <v>0.02265713606984072</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.065211358852663</v>
+        <v>3.161182991836156</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02265713606984072</v>
+        <v>0.9627364901317633</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.161182991836156</v>
+        <v>1.313545798285902</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9627364901317633</v>
+        <v>29</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.313545798285902</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.200482546019671</v>
       </c>
     </row>
@@ -5255,72 +5171,66 @@
         <v>1.655056646410706e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4708790185847657</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.121051753519755</v>
+        <v>5.961442607672987e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>-0.04345785901667833</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.961442607672987e-06</v>
+        <v>0.1891914473434634</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04345785901667833</v>
+        <v>0.03766846989915855</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1891914473434634</v>
+        <v>1.904711607951951</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03766846989915855</v>
+        <v>2.228037365534197</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.928484355547247</v>
+        <v>4.802337840853123</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.228037365534197</v>
+        <v>2.105821687779344e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.802337840853123</v>
+        <v>224289468.3433451</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.105821687779344e-15</v>
+        <v>5.327938885112604e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>224289468.3433451</v>
+        <v>105.9349722413357</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.327938885112604e-07</v>
+        <v>0.0002081532299748768</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>105.9349722413357</v>
+        <v>13.84066717284522</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002081532299748768</v>
+        <v>0.9753011333505414</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.84066717284522</v>
+        <v>0.03987467945750554</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.9753011333505414</v>
+        <v>2.768804138337686</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03987467945750554</v>
+        <v>0.9623412869565019</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.768804138337686</v>
+        <v>1.273354486900064</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9623412869565019</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.273354486900064</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.331720195959047</v>
       </c>
     </row>
@@ -5335,72 +5245,66 @@
         <v>1.61627959642617e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5255804567440938</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.02722609900922</v>
+        <v>5.955146030697938e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>-0.0332900246592906</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.955146030697938e-06</v>
+        <v>0.1939951243119138</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0332900246592906</v>
+        <v>0.03872687309221707</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1939951243119138</v>
+        <v>1.908218662447191</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03872687309221707</v>
+        <v>1.820904317325131</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.931130536999351</v>
+        <v>5.010328261350838</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.820904317325131</v>
+        <v>3.523025113280682e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.010328261350838</v>
+        <v>133131142.623733</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.523025113280682e-15</v>
+        <v>8.999344557455184e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>133131142.623733</v>
+        <v>62.44174880849153</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.999344557455184e-07</v>
+        <v>0.0002255221808576918</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>62.44174880849153</v>
+        <v>13.80278185854941</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002255221808576918</v>
+        <v>1.028811386082983</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.80278185854941</v>
+        <v>0.04296576130206614</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.028811386082983</v>
+        <v>2.814706719563623</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04296576130206614</v>
+        <v>0.9616032175922293</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.814706719563623</v>
+        <v>1.260713525677392</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9616032175922293</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.260713525677392</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.378794705066925</v>
       </c>
     </row>
@@ -5415,72 +5319,66 @@
         <v>1.5861459206185e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5814575375640002</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9015586745519659</v>
+        <v>5.950712335109211e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>-0.02186434264396975</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.950712335109211e-06</v>
+        <v>0.2042740693280841</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02186434264396975</v>
+        <v>0.04218582742327878</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2042740693280841</v>
+        <v>1.895260807685723</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04218582742327878</v>
+        <v>1.750961866893842</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.909960770147017</v>
+        <v>4.584537733791264</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.750961866893842</v>
+        <v>4.295265613406146e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.584537733791264</v>
+        <v>106126814.742754</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.295265613406146e-15</v>
+        <v>1.123882038389824e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>106126814.742754</v>
+        <v>48.37715054541349</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.123882038389824e-06</v>
+        <v>0.00023197381018023</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>48.37715054541349</v>
+        <v>14.93591783248326</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.00023197381018023</v>
+        <v>1.004370926458262</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>14.93591783248326</v>
+        <v>0.0517490983597116</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.004370926458262</v>
+        <v>2.816690218650275</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0517490983597116</v>
+        <v>0.9612052011193202</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.816690218650275</v>
+        <v>1.336667766576326</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9612052011193202</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.336667766576326</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.257606500469646</v>
       </c>
     </row>
@@ -5495,72 +5393,66 @@
         <v>1.565914030916361e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6150221200875643</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8025671953323297</v>
+        <v>5.948267243918081e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>-0.00866418588434912</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.948267243918081e-06</v>
+        <v>0.217427628471562</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.00866418588434912</v>
+        <v>0.04732133110453998</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.217427628471562</v>
+        <v>1.898655408458768</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04732133110453998</v>
+        <v>1.811219494879686</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.904278536866703</v>
+        <v>4.109297637779131</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.811219494879686</v>
+        <v>3.884232774171467e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.109297637779131</v>
+        <v>113194370.7496668</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.884232774171467e-15</v>
+        <v>1.050958868525063e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>113194370.7496668</v>
+        <v>49.7685407990446</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.050958868525063e-06</v>
+        <v>0.0001915583148908839</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>49.7685407990446</v>
+        <v>14.38232502951267</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001915583148908839</v>
+        <v>0.9730662760848656</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>14.38232502951267</v>
+        <v>0.03962408133767469</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.9730662760848656</v>
+        <v>2.767912218156502</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03962408133767469</v>
+        <v>0.9623461400087184</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.767912218156502</v>
+        <v>1.42027009335569</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9623461400087184</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.42027009335569</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8203748114487248</v>
       </c>
     </row>
@@ -5575,72 +5467,66 @@
         <v>1.564678788456497e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6176321250088928</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.7948929240252389</v>
+        <v>5.948109205473076e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>0.006958471306786216</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.948109205473076e-06</v>
+        <v>0.2289308588033755</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.006958471306786216</v>
+        <v>0.05242270711582819</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2289308588033755</v>
+        <v>1.88680545080345</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.05242270711582819</v>
+        <v>1.848177866159288</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.885597899312378</v>
+        <v>4.0191212879294</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.848177866159288</v>
+        <v>3.521342881994565e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.0191212879294</v>
+        <v>124314995.5846617</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.521342881994565e-15</v>
+        <v>9.558264090632463e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>124314995.5846617</v>
+        <v>54.41960099905803</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>9.558264090632463e-07</v>
+        <v>0.0001549773102469482</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>54.41960099905803</v>
+        <v>11.3004513364461</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001549773102469482</v>
+        <v>1.116269473410699</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.3004513364461</v>
+        <v>0.01979063357713299</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.116269473410699</v>
+        <v>2.971905285561609</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01979063357713299</v>
+        <v>0.962366923122781</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.971905285561609</v>
+        <v>1.406709523162228</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.962366923122781</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.406709523162228</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5068765022897177</v>
       </c>
     </row>
@@ -5655,72 +5541,66 @@
         <v>1.593339811967083e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6073885515663352</v>
+        <v>5.254273731012689e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8663957447883508</v>
+        <v>5.950520552401974e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.254273731012689e-07</v>
+        <v>0.02384359624088794</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.950520552401974e-06</v>
+        <v>0.2383318919920619</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02384359624088794</v>
+        <v>0.05732469084111971</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2383318919920619</v>
+        <v>1.853721911240939</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05732469084111971</v>
+        <v>1.799971490101652</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.834613908090327</v>
+        <v>4.011284315923684</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.799971490101652</v>
+        <v>4.335491002923746e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.011284315923684</v>
+        <v>101293438.4368024</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.335491002923746e-15</v>
+        <v>1.166351215509937e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>101293438.4368024</v>
+        <v>44.48370137305624</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.166351215509937e-06</v>
+        <v>0.000131776669739831</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>44.48370137305624</v>
+        <v>9.348504658765236</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.000131776669739831</v>
+        <v>1.175282348812192</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.348504658765236</v>
+        <v>0.01151656134964261</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.175282348812192</v>
+        <v>3.098525923277933</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01151656134964261</v>
+        <v>0.9604635855010444</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.098525923277933</v>
+        <v>1.491961993565612</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9604635855010444</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.491961993565612</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4337635158689202</v>
       </c>
     </row>
@@ -5735,72 +5615,66 @@
         <v>1.664778806396506e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6395919023386393</v>
+        <v>6.38260745022535e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.8200134152788614</v>
+        <v>5.955798960661589e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.38260745022535e-07</v>
+        <v>0.0407965276368676</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.955798960661589e-06</v>
+        <v>0.2453159598322995</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0407965276368676</v>
+        <v>0.06179519741711481</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2453159598322995</v>
+        <v>1.822992549448362</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.06179519741711481</v>
+        <v>1.826029823142836</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.78923552816287</v>
+        <v>4.013296260846288</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.826029823142836</v>
+        <v>4.114050203236478e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.013296260846288</v>
+        <v>108201040.8380184</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.114050203236478e-15</v>
+        <v>1.084274117085984e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>108201040.8380184</v>
+        <v>48.16509974354911</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.084274117085984e-06</v>
+        <v>0.0001107663017188752</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>48.16509974354911</v>
+        <v>7.686171829182076</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001107663017188752</v>
+        <v>1.24385104691938</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.686171829182076</v>
+        <v>0.006543767101204934</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.24385104691938</v>
+        <v>3.364713058906652</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.006543767101204934</v>
+        <v>0.961655691614982</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.364713058906652</v>
+        <v>1.550532067319781</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.961655691614982</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.550532067319781</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4393645490375814</v>
       </c>
     </row>
@@ -5815,72 +5689,66 @@
         <v>1.788768476698015e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.7689524344659395</v>
+        <v>7.728985048185052e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3817820014801896</v>
+        <v>5.964083129826582e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.728985048185052e-07</v>
+        <v>0.05446400458658754</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.964083129826582e-06</v>
+        <v>0.2431117703763141</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05446400458658754</v>
+        <v>0.06203376311207765</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2431117703763141</v>
+        <v>1.777432765317506</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.06203376311207765</v>
+        <v>1.817806200345291</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.722949257964262</v>
+        <v>5.868138732056181</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.817806200345291</v>
+        <v>7.097711179095612e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.868138732056181</v>
+        <v>63918990.40388717</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.097711179095612e-15</v>
+        <v>1.811672905722543e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>63918990.40388717</v>
+        <v>28.99867378105237</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.811672905722543e-06</v>
+        <v>0.0001169644822591562</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>28.99867378105237</v>
+        <v>8.591545336130892</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001169644822591562</v>
+        <v>2.185510198607613</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.591545336130892</v>
+        <v>0.008633692468092691</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.185510198607613</v>
+        <v>3.637166651688823</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008633692468092691</v>
+        <v>0.9595975045758995</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.637166651688823</v>
+        <v>1.665368315854404</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9595975045758995</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.665368315854404</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3856230140320256</v>
       </c>
     </row>
@@ -5895,72 +5763,66 @@
         <v>1.96036854477557e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.9660298589365405</v>
+        <v>8.876460777668451e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.3568961203486194</v>
+        <v>5.975135019916999e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.876460777668451e-07</v>
+        <v>0.06263787564039676</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.975135019916999e-06</v>
+        <v>0.2299304474225586</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.06263787564039676</v>
+        <v>0.05677291942218925</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2299304474225586</v>
+        <v>1.768455938183628</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05677291942218925</v>
+        <v>1.638577013174825</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.707119488823974</v>
+        <v>4.996930461390514</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.638577013174825</v>
+        <v>1.590468193266579e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.996930461390514</v>
+        <v>28723573.96790884</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.590468193266579e-14</v>
+        <v>4.026310406755367e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>28723573.96790884</v>
+        <v>13.1220576527466</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.026310406755367e-06</v>
+        <v>0.0001659679935356087</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>13.1220576527466</v>
+        <v>10.93399599406472</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001659679935356087</v>
+        <v>1.831109320040189</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.93399599406472</v>
+        <v>0.01984185010868368</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.831109320040189</v>
+        <v>3.395716711395057</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01984185010868368</v>
+        <v>0.9581708105175823</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.395716711395057</v>
+        <v>1.701813985535256</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9581708105175823</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.701813985535256</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2817711843026324</v>
       </c>
     </row>
@@ -5975,72 +5837,66 @@
         <v>2.160209766910475e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.14413172582089</v>
+        <v>9.672044601999619e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.9841175020609225</v>
+        <v>5.988417011266012e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.672044601999619e-07</v>
+        <v>0.06550100782947346</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.988417011266012e-06</v>
+        <v>0.2107229928282407</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.06550100782947346</v>
+        <v>0.04868948119120935</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2107229928282407</v>
+        <v>1.743705275335018</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04868948119120935</v>
+        <v>1.511359120838839</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.672422251696402</v>
+        <v>4.414400485409928</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.511359120838839</v>
+        <v>3.365308452063829e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.414400485409928</v>
+        <v>13792127.08481882</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.365308452063829e-14</v>
+        <v>8.355008082099269e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>13792127.08481882</v>
+        <v>6.401582940534096</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.355008082099269e-06</v>
+        <v>0.0001592385702802252</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>6.401582940534096</v>
+        <v>10.30574562422801</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001592385702802252</v>
+        <v>1.620022325093465</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.30574562422801</v>
+        <v>0.01691247263258545</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.620022325093465</v>
+        <v>3.170511984027535</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01691247263258545</v>
+        <v>0.9566697203271419</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.170511984027535</v>
+        <v>1.738461011649586</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9566697203271419</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.738461011649586</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1958556602360002</v>
       </c>
     </row>
@@ -6055,72 +5911,66 @@
         <v>2.360649815617519e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.241298940788556</v>
+        <v>9.978864408141564e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.221171334818997</v>
+        <v>6.003126479639287e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.978864408141564e-07</v>
+        <v>0.06405663413126489</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.003126479639287e-06</v>
+        <v>0.1917648413175017</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.06405663413126489</v>
+        <v>0.04087668340841695</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1917648413175017</v>
+        <v>1.70196288792888</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04087668340841695</v>
+        <v>1.503802188434735</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.628999256450786</v>
+        <v>3.697494726334095</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.503802188434735</v>
+        <v>5.005191811160639e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.697494726334095</v>
+        <v>9458487.982438089</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.005191811160639e-14</v>
+        <v>1.19100429056584e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>9458487.982438089</v>
+        <v>4.477794495450872</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.19100429056584e-05</v>
+        <v>0.0001671447950572208</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>4.477794495450872</v>
+        <v>10.97702878516641</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001671447950572208</v>
+        <v>1.139100535957057</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.97702878516641</v>
+        <v>0.02014013898243677</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.139100535957057</v>
+        <v>2.789054631442288</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02014013898243677</v>
+        <v>0.9533542642224914</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.789054631442288</v>
+        <v>1.739678703465392</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9533542642224914</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.739678703465392</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1633208222745051</v>
       </c>
     </row>
@@ -6135,72 +5985,66 @@
         <v>2.540515132638089e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.257282240841101</v>
+        <v>1.000791377415773e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.121447102761791</v>
+        <v>6.018485738358763e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.000791377415773e-06</v>
+        <v>0.06124511075581467</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.018485738358763e-06</v>
+        <v>0.1772151260485269</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.06124511075581467</v>
+        <v>0.03515615095817763</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1772151260485269</v>
+        <v>1.653285238183395</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03515615095817763</v>
+        <v>1.49651841074049</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.566553268245322</v>
+        <v>3.661261465461457</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.49651841074049</v>
+        <v>5.104748643748726e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.661261465461457</v>
+        <v>9432220.823619371</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.104748643748726e-14</v>
+        <v>1.178002757897528e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9432220.823619371</v>
+        <v>4.541530988837358</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.178002757897528e-05</v>
+        <v>0.0001909168739435284</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>4.541530988837358</v>
+        <v>12.11644558131786</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001909168739435284</v>
+        <v>1.043984987609953</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>12.11644558131786</v>
+        <v>0.02802817283210905</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.043984987609953</v>
+        <v>2.379876887326665</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02802817283210905</v>
+        <v>0.9539823534370361</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.379876887326665</v>
+        <v>1.794205868393418</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9539823534370361</v>
+        <v>4</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.794205868393418</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1547752738631047</v>
       </c>
     </row>
@@ -6215,72 +6059,66 @@
         <v>2.69811464454613e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.229092439700393</v>
+        <v>1.006211377977808e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.8843232810108406</v>
+        <v>6.034264143976717e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.006211377977808e-06</v>
+        <v>0.05933385587786185</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.034264143976717e-06</v>
+        <v>0.1659834114081864</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05933385587786185</v>
+        <v>0.03107101734446518</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1659834114081864</v>
+        <v>1.638951956347725</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03107101734446518</v>
+        <v>1.494023538147879</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.546481032065644</v>
+        <v>3.662367647550252</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.494023538147879</v>
+        <v>5.101665431311594e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.662367647550252</v>
+        <v>9418666.445003062</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.101665431311594e-14</v>
+        <v>1.174354972801519e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9418666.445003062</v>
+        <v>4.525752583107661</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.174354972801519e-05</v>
+        <v>0.0001922752497065202</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>4.525752583107661</v>
+        <v>11.28333383611483</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001922752497065202</v>
+        <v>1.135793160088693</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.28333383611483</v>
+        <v>0.02447925854900243</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.135793160088693</v>
+        <v>2.512742016943339</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02447925854900243</v>
+        <v>0.954574884104252</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.512742016943339</v>
+        <v>1.800532313442722</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.954574884104252</v>
+        <v>4</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.800532313442722</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1479190522357638</v>
       </c>
     </row>
@@ -6295,72 +6133,66 @@
         <v>2.83864226414678e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.183016819075868</v>
+        <v>1.015736196302307e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6208512070161589</v>
+        <v>6.050513415402801e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.015736196302307e-06</v>
+        <v>0.05806540459327058</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.050513415402801e-06</v>
+        <v>0.1569845478771552</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05806540459327058</v>
+        <v>0.02801583185818775</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1569845478771552</v>
+        <v>1.62821651647683</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02801583185818775</v>
+        <v>1.476166064370244</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.533427838434293</v>
+        <v>3.682896795407111</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.476166064370244</v>
+        <v>5.044948694657419e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.682896795407111</v>
+        <v>9275352.523098623</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.044948694657419e-14</v>
+        <v>1.181234231823597e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>9275352.523098623</v>
+        <v>4.340278556283399</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.181234231823597e-05</v>
+        <v>0.0001764828727691332</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>4.340278556283399</v>
+        <v>9.326081807161543</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001764828727691332</v>
+        <v>1.361854503871568</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.326081807161543</v>
+        <v>0.01534973937609945</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.361854503871568</v>
+        <v>2.804958813085748</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01534973937609945</v>
+        <v>0.9548874683447861</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.804958813085748</v>
+        <v>1.814788481095961</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9548874683447861</v>
+        <v>4</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.814788481095961</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1480472749920201</v>
       </c>
     </row>
@@ -6375,72 +6207,66 @@
         <v>2.966142541045968e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.130698659290475</v>
+        <v>1.033905847635418e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.368495291069753</v>
+        <v>6.067260043469213e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.033905847635418e-06</v>
+        <v>0.0574206826559342</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.067260043469213e-06</v>
+        <v>0.1496204397746264</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0574206826559342</v>
+        <v>0.02568327261165593</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1496204397746264</v>
+        <v>1.62445865564097</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02568327261165593</v>
+        <v>1.483754968639944</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.52754806970284</v>
+        <v>3.664765717492826</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.483754968639944</v>
+        <v>5.094990981313104e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.664765717492826</v>
+        <v>9366609.456875967</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.094990981313104e-14</v>
+        <v>1.170203138588547e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>9366609.456875967</v>
+        <v>4.470007427565482</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.170203138588547e-05</v>
+        <v>0.0001639880565799202</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>4.470007427565482</v>
+        <v>8.515045172311572</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001639880565799202</v>
+        <v>1.508252117853227</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.515045172311572</v>
+        <v>0.01189011709343902</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.508252117853227</v>
+        <v>2.92552344128783</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01189011709343902</v>
+        <v>0.9536197748586942</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.92552344128783</v>
+        <v>1.813994903700179</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9536197748586942</v>
+        <v>4</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.813994903700179</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1507794328433895</v>
       </c>
     </row>
@@ -6455,72 +6281,66 @@
         <v>3.08597434241408e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.078826712881511</v>
+        <v>1.057652100856714e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.1432768279983687</v>
+        <v>6.084586580610979e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.057652100856714e-06</v>
+        <v>0.05696854518797451</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.084586580610979e-06</v>
+        <v>0.1434089041550095</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05696854518797451</v>
+        <v>0.02381170018579999</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1434089041550095</v>
+        <v>1.586275400111954</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02381170018579999</v>
+        <v>1.4613319823256</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.486759015937718</v>
+        <v>3.68692647929783</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.4613319823256</v>
+        <v>5.033926810250631e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.68692647929783</v>
+        <v>9569084.134957433</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.033926810250631e-14</v>
+        <v>1.132590831513411e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9569084.134957433</v>
+        <v>4.609434447367074</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.132590831513411e-05</v>
+        <v>0.0001548399515410349</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.609434447367074</v>
+        <v>9.8845310934708</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001548399515410349</v>
+        <v>1.169396518805243</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.8845310934708</v>
+        <v>0.01512847564793502</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.169396518805243</v>
+        <v>2.801970440933168</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01512847564793502</v>
+        <v>0.95059135201684</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.801970440933168</v>
+        <v>1.81569418811564</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.95059135201684</v>
+        <v>5</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.81569418811564</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1590820952230595</v>
       </c>
     </row>
@@ -6535,72 +6355,66 @@
         <v>3.197058498662253e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.025759504292426</v>
+        <v>1.065160968796545e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.06377330914067647</v>
+        <v>6.102290565026712e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.065160968796545e-06</v>
+        <v>0.05548109553558906</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.102290565026712e-06</v>
+        <v>0.1382807927684138</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.05548109553558906</v>
+        <v>0.02220010683977711</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1382807927684138</v>
+        <v>1.583877562716538</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02220010683977711</v>
+        <v>1.439069766829857</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.485871427623648</v>
+        <v>3.693093955331439</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.439069766829857</v>
+        <v>5.017127508979761e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.693093955331439</v>
+        <v>9833602.130516117</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.017127508979761e-14</v>
+        <v>1.106178067778271e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9833602.130516117</v>
+        <v>4.851548798151228</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.106178067778271e-05</v>
+        <v>0.0001751039605000499</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.851548798151228</v>
+        <v>11.67343013199358</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001751039605000499</v>
+        <v>1.090624490234789</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.67343013199358</v>
+        <v>0.02386123652351501</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.090624490234789</v>
+        <v>2.510252895093872</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02386123652351501</v>
+        <v>0.9487974023432845</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.510252895093872</v>
+        <v>1.822967838174939</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9487974023432845</v>
+        <v>5</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.822967838174939</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1563739418060363</v>
       </c>
     </row>
@@ -6615,72 +6429,66 @@
         <v>3.293150775660647e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.9669655680899342</v>
+        <v>1.063109729874357e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.2661392671909661</v>
+        <v>6.119918731842467e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.063109729874357e-06</v>
+        <v>0.05305609131918935</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.119918731842467e-06</v>
+        <v>0.1346791703700549</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05305609131918935</v>
+        <v>0.02095362242160497</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1346791703700549</v>
+        <v>1.558733248737612</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02095362242160497</v>
+        <v>1.475743121994967</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.460377197123761</v>
+        <v>3.854030231135898</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.475743121994967</v>
+        <v>4.606866401349723e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.854030231135898</v>
+        <v>10919899.85704874</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.606866401349723e-14</v>
+        <v>9.84702641183261e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>10919899.85704874</v>
+        <v>5.493421579089965</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.84702641183261e-06</v>
+        <v>0.0001890074677373954</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>5.493421579089965</v>
+        <v>11.26253226311117</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001890074677373954</v>
+        <v>1.170091054929852</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.26253226311117</v>
+        <v>0.02397458287517929</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.170091054929852</v>
+        <v>2.566856071599816</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02397458287517929</v>
+        <v>0.948026718237578</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.566856071599816</v>
+        <v>1.836755506028382</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.948026718237578</v>
+        <v>8</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.836755506028382</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1455840489682819</v>
       </c>
     </row>
@@ -6695,72 +6503,66 @@
         <v>3.373519707964213e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.9032326138338431</v>
+        <v>1.055683521982931e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.4596273657514369</v>
+        <v>6.137235962230006e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.055683521982931e-06</v>
+        <v>0.05094575309151644</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.137235962230006e-06</v>
+        <v>0.131834259877374</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05094575309151644</v>
+        <v>0.01997602124294012</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.131834259877374</v>
+        <v>1.548517668997661</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01997602124294012</v>
+        <v>1.488258974979814</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.447844993526843</v>
+        <v>3.822517919357661</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.488258974979814</v>
+        <v>4.683136235316057e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.822517919357661</v>
+        <v>11005632.08425608</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.683136235316057e-14</v>
+        <v>9.804715967693409e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>11005632.08425608</v>
+        <v>5.672399010169918</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.804715967693409e-06</v>
+        <v>0.0001748006739046526</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.672399010169918</v>
+        <v>9.642285863628134</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001748006739046526</v>
+        <v>1.336200545994477</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.642285863628134</v>
+        <v>0.01625186133834462</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.336200545994477</v>
+        <v>2.777687004041761</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01625186133834462</v>
+        <v>0.9457576443877693</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.777687004041761</v>
+        <v>1.845002646693038</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9457576443877693</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.845002646693038</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1503207371501155</v>
       </c>
     </row>
@@ -7137,7 +6939,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.393740356182164</v>
+        <v>1.417025220410129</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.501820943603888</v>
@@ -7226,7 +7028,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.419988902723319</v>
+        <v>1.445475662236342</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.299298931654078</v>
@@ -7315,7 +7117,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.425809058104469</v>
+        <v>1.451985898890298</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.593552866790518</v>
@@ -7404,7 +7206,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.438323513514907</v>
+        <v>1.470948130913262</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.520162972826867</v>
@@ -7493,7 +7295,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.432571643959629</v>
+        <v>1.465299201451664</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.198139729569063</v>
@@ -7582,7 +7384,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.484108344936989</v>
+        <v>1.519877896224678</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.468843476148735</v>
@@ -7671,7 +7473,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502102343002856</v>
+        <v>1.542578211971505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356078946769689</v>
@@ -7760,7 +7562,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508273088000276</v>
+        <v>1.552117215985817</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.512533000604979</v>
@@ -7849,7 +7651,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.49033980054929</v>
+        <v>1.534965168086136</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.447501106754681</v>
@@ -7938,7 +7740,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.493581308288831</v>
+        <v>1.538096422099035</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.433294598148913</v>
@@ -8027,7 +7829,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490209693581333</v>
+        <v>1.534726670104372</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.624029491468842</v>
@@ -8116,7 +7918,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490857048604982</v>
+        <v>1.535704097343871</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.448087478614875</v>
@@ -8205,7 +8007,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537277522063318</v>
+        <v>1.585076252952041</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.455094425431402</v>
@@ -8294,7 +8096,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.546403529983011</v>
+        <v>1.589775588648285</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.515162951851371</v>
@@ -8383,7 +8185,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.506612680835408</v>
+        <v>1.546618786748644</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.67355609250018</v>
@@ -8472,7 +8274,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.507899135018905</v>
+        <v>1.547248530089188</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.509996907668234</v>
@@ -8561,7 +8363,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.494748008263471</v>
+        <v>1.535254460743281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.528157323294442</v>
@@ -8650,7 +8452,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.485555900150811</v>
+        <v>1.522495837805005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.457800577816562</v>
@@ -8739,7 +8541,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.477188948452226</v>
+        <v>1.51461187918482</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.385101002106798</v>
@@ -8828,7 +8630,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495006199700512</v>
+        <v>1.533322132374766</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.556621275294297</v>
@@ -8917,7 +8719,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.485616672060248</v>
+        <v>1.521212764963653</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.194285621162608</v>
@@ -9006,7 +8808,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.490317704851585</v>
+        <v>1.521266011395611</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.567782362390111</v>
@@ -9095,7 +8897,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.478392172811018</v>
+        <v>1.513402457875284</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.529328742488807</v>
@@ -9184,7 +8986,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.488923503926907</v>
+        <v>1.520056619851957</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.559759151626439</v>
@@ -9273,7 +9075,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512850041696264</v>
+        <v>1.54275041668467</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.651678372141422</v>
@@ -9362,7 +9164,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.501261320824851</v>
+        <v>1.516201866401549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.248796291297437</v>
@@ -9451,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499026114952485</v>
+        <v>1.525946393670973</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.513608170544607</v>
@@ -9540,7 +9342,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.476477894506288</v>
+        <v>1.502746000051971</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.520078117009773</v>
@@ -9629,7 +9431,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.493082524889056</v>
+        <v>1.521310372108036</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.270154022074</v>
@@ -9718,7 +9520,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495302906553486</v>
+        <v>1.527741088838138</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.498203071380769</v>
@@ -9807,7 +9609,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.492371732284868</v>
+        <v>1.524283583505701</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.379347913247989</v>
@@ -9896,7 +9698,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506812009909501</v>
+        <v>1.540686372474618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.458533797419699</v>
@@ -9985,7 +9787,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533132809849985</v>
+        <v>1.565902846109004</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.585677049383914</v>
@@ -10074,7 +9876,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.544443142785052</v>
+        <v>1.578706238424308</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.567549851180492</v>
@@ -10163,7 +9965,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.563885497054532</v>
+        <v>1.595673042258142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.506199774769781</v>
@@ -10252,7 +10054,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579405614158917</v>
+        <v>1.614081816558767</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.554610843455822</v>
@@ -10341,7 +10143,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590482449246163</v>
+        <v>1.617680235559384</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.414279694909935</v>
@@ -10430,7 +10232,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.554463456816784</v>
+        <v>1.571764597002975</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.547687529024006</v>
@@ -10519,7 +10321,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51201532618286</v>
+        <v>1.535247231276789</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.559541598584946</v>
@@ -10608,7 +10410,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.438919238762318</v>
+        <v>1.461101690567038</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.983240329113475</v>
@@ -10697,7 +10499,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.438058781186008</v>
+        <v>1.466577249341838</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.089696021649196</v>
@@ -10786,7 +10588,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.442464317733586</v>
+        <v>1.472689992579317</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.980989098736796</v>
@@ -10875,7 +10677,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460240196091541</v>
+        <v>1.491162630287507</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.002014493616402</v>
@@ -10964,7 +10766,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.453472613663779</v>
+        <v>1.482667548174535</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.933565961972871</v>
@@ -11053,7 +10855,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.458663928539814</v>
+        <v>1.489167930803505</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.990330592481531</v>
@@ -11142,7 +10944,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.474507787956555</v>
+        <v>1.508035616785064</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.020332748863624</v>
@@ -11231,7 +11033,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.454489840820507</v>
+        <v>1.488174814688235</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.01169377774314</v>
@@ -11320,7 +11122,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455438193024762</v>
+        <v>1.488728998180287</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.979045650272411</v>
@@ -11409,7 +11211,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.464298642451696</v>
+        <v>1.497036945678641</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.960506407623984</v>
@@ -11498,7 +11300,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.449442435718214</v>
+        <v>1.480640582047205</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.005654677083951</v>
@@ -11587,7 +11389,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.449359721147868</v>
+        <v>1.478546087380344</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.987656330429295</v>
@@ -11676,7 +11478,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.452408911572158</v>
+        <v>1.482098657350265</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.950586263109459</v>
@@ -11765,7 +11567,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.485876681747272</v>
+        <v>1.519717627536092</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.083146115750098</v>
@@ -11854,7 +11656,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.525377019514428</v>
+        <v>1.558872010412106</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.892723319816804</v>
@@ -11943,7 +11745,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589194807583425</v>
+        <v>1.621980332897552</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.160628767773823</v>
@@ -12032,7 +11834,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.619342252559108</v>
+        <v>1.652579704632149</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.583826808638818</v>
@@ -12121,7 +11923,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.616061582241763</v>
+        <v>1.648083106303872</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.634013608053309</v>
@@ -12210,7 +12012,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.618933253722401</v>
+        <v>1.64686294995905</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.60547217464318</v>
@@ -12299,7 +12101,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.640655529759357</v>
+        <v>1.668244231202965</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.593106300530537</v>
@@ -12388,7 +12190,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.649710591960105</v>
+        <v>1.668715684115533</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.533516989778156</v>
@@ -12477,7 +12279,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.651958456313838</v>
+        <v>1.666932619989956</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.637373538787117</v>
@@ -12566,7 +12368,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.635821979846374</v>
+        <v>1.64448064688939</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.641473643703073</v>
@@ -12655,7 +12457,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.60565355992928</v>
+        <v>1.610372037266945</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.632451926447168</v>
@@ -12744,7 +12546,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.571917958254422</v>
+        <v>1.578751679700731</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.402070739226151</v>
@@ -12833,7 +12635,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.549139488726178</v>
+        <v>1.557311430571772</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.564301125536075</v>
@@ -12922,7 +12724,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.541323085527829</v>
+        <v>1.553835383009258</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.73767502029126</v>
@@ -13011,7 +12813,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.548440643189022</v>
+        <v>1.556859888572354</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.606893644229416</v>
@@ -13100,7 +12902,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.530241263266866</v>
+        <v>1.538669341977087</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.665081516892948</v>
@@ -13189,7 +12991,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.53095119727402</v>
+        <v>1.536907199143222</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.631169828285942</v>
@@ -13278,7 +13080,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.562004861124147</v>
+        <v>1.562953302309846</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.631756457743962</v>
@@ -13367,7 +13169,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.518845863834331</v>
+        <v>1.518784694761767</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.689597279240159</v>
@@ -13456,7 +13258,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.516827606421963</v>
+        <v>1.51556345037254</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.498397072951924</v>
@@ -13545,7 +13347,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.50459337478245</v>
+        <v>1.505783135106548</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.566234404219058</v>
@@ -13634,7 +13436,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.499653728478633</v>
+        <v>1.498124653475554</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.610925127034527</v>
@@ -13723,7 +13525,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.495635463998129</v>
+        <v>1.49799171523444</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.634002879423239</v>
@@ -13812,7 +13614,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.48375356676984</v>
+        <v>1.482977173427113</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.666745510064792</v>
@@ -14098,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446494497786288</v>
+        <v>1.443236941694753</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.582088723392349</v>
@@ -14187,7 +13989,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456398517725517</v>
+        <v>1.455197077737331</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.425343800533925</v>
@@ -14276,7 +14078,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.470022425108999</v>
+        <v>1.465472419662621</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.341688892163719</v>
@@ -14365,7 +14167,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.479101688636754</v>
+        <v>1.482931840709483</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.517505961460543</v>
@@ -14454,7 +14256,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.491392449978825</v>
+        <v>1.492379975550261</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.233984447729995</v>
@@ -14543,7 +14345,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.507635632169201</v>
+        <v>1.50549285116784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.575424274534607</v>
@@ -14632,7 +14434,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534361085517981</v>
+        <v>1.522617899239769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.488892805610326</v>
@@ -14721,7 +14523,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.541294038732027</v>
+        <v>1.526892785611607</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.755662336950166</v>
@@ -14810,7 +14612,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.53634020270064</v>
+        <v>1.527962459180688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.749592657635527</v>
@@ -14899,7 +14701,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.562590239013451</v>
+        <v>1.552368251428803</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.683777027901968</v>
@@ -14988,7 +14790,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564264269369087</v>
+        <v>1.555041002257072</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.623081363111766</v>
@@ -15077,7 +14879,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562423903099172</v>
+        <v>1.554734746043994</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.674742319246125</v>
@@ -15166,7 +14968,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.577212884884974</v>
+        <v>1.563392178346824</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.68861026271344</v>
@@ -15255,7 +15057,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587010267926125</v>
+        <v>1.56809225709171</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.678768732405435</v>
@@ -15344,7 +15146,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.56935515154268</v>
+        <v>1.55189111975289</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.767324335342066</v>
@@ -15433,7 +15235,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570833204793298</v>
+        <v>1.54840753160679</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.629491246997504</v>
@@ -15522,7 +15324,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564413606092242</v>
+        <v>1.542994370040236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.628391006892543</v>
@@ -15611,7 +15413,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550064353414129</v>
+        <v>1.528082958939455</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.670500586099437</v>
@@ -15700,7 +15502,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.542687011191127</v>
+        <v>1.519339506046743</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.850191514055442</v>
@@ -15789,7 +15591,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.540304092010738</v>
+        <v>1.516232721598154</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.778429186444228</v>
@@ -15878,7 +15680,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519970107930825</v>
+        <v>1.50219316634893</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.814683813790521</v>
@@ -15967,7 +15769,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505481995304023</v>
+        <v>1.49169527186811</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.814703374894706</v>
@@ -16056,7 +15858,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.505239766952236</v>
+        <v>1.496277361509277</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.810276426390763</v>
@@ -16145,7 +15947,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.513241955645509</v>
+        <v>1.500664896352835</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.790987835662269</v>
@@ -16234,7 +16036,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.520187708090117</v>
+        <v>1.504214605050118</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.533593277415652</v>
@@ -16323,7 +16125,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.507973165543953</v>
+        <v>1.489226544721609</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.692467555560611</v>
@@ -16412,7 +16214,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.495108822380169</v>
+        <v>1.481687629835708</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.778489652134764</v>
@@ -16501,7 +16303,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.483880200537975</v>
+        <v>1.474797134031455</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.725340274053469</v>
@@ -16590,7 +16392,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.479903331443228</v>
+        <v>1.469630825781786</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.607124420787505</v>
@@ -16679,7 +16481,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.471146206418184</v>
+        <v>1.466075176206785</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.78427042047574</v>
@@ -16768,7 +16570,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.477528392724239</v>
+        <v>1.473133322730978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.708758395461448</v>
@@ -16857,7 +16659,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.481956321647412</v>
+        <v>1.475531994394151</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.405005333320648</v>
@@ -16946,7 +16748,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484123031707627</v>
+        <v>1.481255965292315</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.846244478703251</v>
@@ -17035,7 +16837,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502285174648344</v>
+        <v>1.50195048629233</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.773705183923502</v>
@@ -17124,7 +16926,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519728945597635</v>
+        <v>1.517329373209831</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.686905555618035</v>
@@ -17213,7 +17015,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.540180581288982</v>
+        <v>1.535629721086226</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.635611119849572</v>
@@ -17302,7 +17104,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54489765782082</v>
+        <v>1.534806048387408</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.675217871536608</v>
@@ -17391,7 +17193,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.521941591976885</v>
+        <v>1.511034552574466</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.698345033801888</v>
@@ -17480,7 +17282,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.494460301063789</v>
+        <v>1.487795557901173</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.655433322342548</v>
@@ -17569,7 +17371,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484330949027216</v>
+        <v>1.480062418847195</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.402662372332924</v>
@@ -17658,7 +17460,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489962050157251</v>
+        <v>1.490122972623594</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.307321516093572</v>
@@ -17747,7 +17549,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.492361163227047</v>
+        <v>1.488309722725399</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.45333398214454</v>
@@ -17836,7 +17638,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.500909949759574</v>
+        <v>1.498245089837941</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.706473402002302</v>
@@ -17925,7 +17727,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.496824070696178</v>
+        <v>1.494326116759689</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.418501924469332</v>
@@ -18014,7 +17816,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.504852315107385</v>
+        <v>1.50109913414335</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.48641255979885</v>
@@ -18103,7 +17905,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.492554706556367</v>
+        <v>1.496256321223275</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.501962888076882</v>
@@ -18192,7 +17994,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499628037386906</v>
+        <v>1.506438109792936</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.541377649814253</v>
@@ -18281,7 +18083,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.514935950990656</v>
+        <v>1.522276988735577</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.591051482329435</v>
@@ -18370,7 +18172,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.515462218391814</v>
+        <v>1.517071610232228</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.524987186240228</v>
@@ -18459,7 +18261,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.509449715433233</v>
+        <v>1.512381732689432</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.465327741963912</v>
@@ -18548,7 +18350,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.513708402765734</v>
+        <v>1.518031393792619</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.563362127005318</v>
@@ -18637,7 +18439,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.51629133564129</v>
+        <v>1.525725339386563</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.495962276224734</v>
@@ -18726,7 +18528,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.532056242662331</v>
+        <v>1.542621597956472</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.433937630288644</v>
@@ -18815,7 +18617,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.57230879531903</v>
+        <v>1.575625117445409</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.48602820120757</v>
@@ -18904,7 +18706,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574316309754567</v>
+        <v>1.577468854415457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.481261842867205</v>
@@ -18993,7 +18795,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567381283796726</v>
+        <v>1.569290518347662</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.493165770272735</v>
@@ -19082,7 +18884,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.562405663670809</v>
+        <v>1.566010584181297</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.519768167691737</v>
@@ -19171,7 +18973,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.560990542154027</v>
+        <v>1.558313143635987</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.343444388648098</v>
@@ -19260,7 +19062,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.570600699643922</v>
+        <v>1.572027918646601</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.566251340913784</v>
@@ -19349,7 +19151,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59126778396048</v>
+        <v>1.58901944749579</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.42467173808966</v>
@@ -19438,7 +19240,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.575357799198193</v>
+        <v>1.569208891452234</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.598719699287462</v>
@@ -19527,7 +19329,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.552522989446625</v>
+        <v>1.543023420443098</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.668511087944208</v>
@@ -19616,7 +19418,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.533032673965132</v>
+        <v>1.526081762064258</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.641105594476242</v>
@@ -19705,7 +19507,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.511663855036634</v>
+        <v>1.511422370586668</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.607953072693077</v>
@@ -19794,7 +19596,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.511073328336964</v>
+        <v>1.512059142551839</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.699001791732685</v>
@@ -19883,7 +19685,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.490147733046502</v>
+        <v>1.488562606597287</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.667892183898565</v>
@@ -19972,7 +19774,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.482773976406801</v>
+        <v>1.483331147045584</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.580028783799301</v>
@@ -20061,7 +19863,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.447633862553782</v>
+        <v>1.444184763430582</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.583172393028244</v>
@@ -20150,7 +19952,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.441704812534835</v>
+        <v>1.437546369198028</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.60414677541608</v>
@@ -20239,7 +20041,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.437039577111562</v>
+        <v>1.433293352608777</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.599931857039347</v>
@@ -20328,7 +20130,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.4197584131549</v>
+        <v>1.418724534766919</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.504981026596123</v>
@@ -20417,7 +20219,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.42589521113303</v>
+        <v>1.428142883572822</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.633794050344409</v>
@@ -20506,7 +20308,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.413655048845594</v>
+        <v>1.418808545003485</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.471558593106216</v>
@@ -20595,7 +20397,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.412572681438414</v>
+        <v>1.419964230626639</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.5918247019793</v>
@@ -20684,7 +20486,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.410438566915817</v>
+        <v>1.420722180246523</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.247895325895836</v>
@@ -20773,7 +20575,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.418490030353178</v>
+        <v>1.428663276678264</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.628335245964778</v>
@@ -21059,7 +20861,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.763431793743236</v>
+        <v>1.765965837181903</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.052199110724989</v>
@@ -21148,7 +20950,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.76618918724988</v>
+        <v>1.77037118060292</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.511635453249322</v>
@@ -21237,7 +21039,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.775966772218188</v>
+        <v>1.78326738125221</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.817077630215973</v>
@@ -21326,7 +21128,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.784749701659052</v>
+        <v>1.800155837244906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.435894008863369</v>
@@ -21415,7 +21217,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.784980708764738</v>
+        <v>1.802289945074525</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.436478646228813</v>
@@ -21504,7 +21306,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.798118843812115</v>
+        <v>1.811103994505028</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.192072523302637</v>
@@ -21593,7 +21395,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.810255156700072</v>
+        <v>1.817981818632969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.997819350643892</v>
@@ -21682,7 +21484,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.82445378504011</v>
+        <v>1.832510366398375</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.55979666604831</v>
@@ -21771,7 +21573,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.828052163159563</v>
+        <v>1.83308113625515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.328414047332302</v>
@@ -21860,7 +21662,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.831973492758524</v>
+        <v>1.837143277214421</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.480180767258068</v>
@@ -21949,7 +21751,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.827953490953914</v>
+        <v>1.834712614043637</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.968054124992769</v>
@@ -22038,7 +21840,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.823139106670625</v>
+        <v>1.834851249179901</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.939935185611673</v>
@@ -22127,7 +21929,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.837752892375114</v>
+        <v>1.845861849370338</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.28562427892614</v>
@@ -22216,7 +22018,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.835072966411545</v>
+        <v>1.842081856662988</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.32647403621424</v>
@@ -22305,7 +22107,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.821133250007769</v>
+        <v>1.829777866341784</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.954760815688154</v>
@@ -22394,7 +22196,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.828758084333876</v>
+        <v>1.834958147303692</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.765481819007675</v>
@@ -22483,7 +22285,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.822336765094859</v>
+        <v>1.824602353135178</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.786822660611268</v>
@@ -22572,7 +22374,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.818689495348985</v>
+        <v>1.818244259835695</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.057702109357448</v>
@@ -22661,7 +22463,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.81406421539681</v>
+        <v>1.811571666033753</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.990156304850718</v>
@@ -22750,7 +22552,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.818277016752894</v>
+        <v>1.815387042334103</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.590730520733053</v>
@@ -22839,7 +22641,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.82296559675319</v>
+        <v>1.821732552939508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.647257390692925</v>
@@ -22928,7 +22730,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.820068448331911</v>
+        <v>1.824096023054427</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.80161327774249</v>
@@ -23017,7 +22819,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.81246529397914</v>
+        <v>1.820172109085644</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.642210595877743</v>
@@ -23106,7 +22908,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.816611756838954</v>
+        <v>1.82385353675206</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.636211397509775</v>
@@ -23195,7 +22997,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.825331271954102</v>
+        <v>1.826916574967826</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.806633083817194</v>
@@ -23284,7 +23086,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.826575663425951</v>
+        <v>1.820545396064646</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.13037155767854</v>
@@ -23373,7 +23175,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82606679618077</v>
+        <v>1.821114299740985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.784410677238772</v>
@@ -23462,7 +23264,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.817891207591359</v>
+        <v>1.811481843548835</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.735837821310906</v>
@@ -23551,7 +23353,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.829018856943424</v>
+        <v>1.821068247015826</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.753205268765766</v>
@@ -23640,7 +23442,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.830275324310968</v>
+        <v>1.822025246919434</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.454408511239726</v>
@@ -23729,7 +23531,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.832074339704495</v>
+        <v>1.827469132875232</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.212197847917627</v>
@@ -23818,7 +23620,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.838518616917016</v>
+        <v>1.838174151148041</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.349022138889747</v>
@@ -23907,7 +23709,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.847872238368389</v>
+        <v>1.844741429400941</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.437564001092841</v>
@@ -23996,7 +23798,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.848822373782897</v>
+        <v>1.847590387419617</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.248588361793898</v>
@@ -24085,7 +23887,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.856000305744717</v>
+        <v>1.854992005363201</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.510590448067934</v>
@@ -24174,7 +23976,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.861433207232422</v>
+        <v>1.862114444503959</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.328183867566514</v>
@@ -24263,7 +24065,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.863514033903749</v>
+        <v>1.860984225953567</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.013503772046302</v>
@@ -24352,7 +24154,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.84866892311747</v>
+        <v>1.843427573289731</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.520138562318679</v>
@@ -24441,7 +24243,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.831571793841949</v>
+        <v>1.828993163105693</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.596321164763863</v>
@@ -24530,7 +24332,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.813699730520545</v>
+        <v>1.814941587852388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.578802016149664</v>
@@ -24619,7 +24421,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.828790801836725</v>
+        <v>1.833377850658694</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.313465299479922</v>
@@ -24708,7 +24510,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.83033450018574</v>
+        <v>1.835966938137456</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.044792123309572</v>
@@ -24797,7 +24599,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.836008843490459</v>
+        <v>1.845957283009206</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.154409317415253</v>
@@ -24886,7 +24688,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.82722650001843</v>
+        <v>1.83679931259028</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.957203151700969</v>
@@ -24975,7 +24777,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.830460202574429</v>
+        <v>1.837198000543649</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.817200195749777</v>
@@ -25064,7 +24866,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.836395846431307</v>
+        <v>1.843927290519787</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.07777666587397</v>
@@ -25153,7 +24955,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.829005917587634</v>
+        <v>1.839110164808847</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.238788667162061</v>
@@ -25242,7 +25044,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.830536948563962</v>
+        <v>1.842695649606393</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.32450970465644</v>
@@ -25331,7 +25133,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.834993767328363</v>
+        <v>1.846320595063486</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.918646637124262</v>
@@ -25420,7 +25222,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.820656282694937</v>
+        <v>1.825687791822904</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.274820752701794</v>
@@ -25509,7 +25311,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.814201006775029</v>
+        <v>1.811970114290693</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.013796481774502</v>
@@ -25598,7 +25400,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.813457880285483</v>
+        <v>1.808027415515044</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.303672348065939</v>
@@ -25687,7 +25489,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.830497703206482</v>
+        <v>1.821980949016619</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.972180253714142</v>
@@ -25776,7 +25578,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.851085252865492</v>
+        <v>1.838797132681653</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.767123824765865</v>
@@ -25865,7 +25667,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.85013324949755</v>
+        <v>1.844238075562741</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.986009694075904</v>
@@ -25954,7 +25756,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.843274942131401</v>
+        <v>1.839698870404838</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.425506689852604</v>
@@ -26043,7 +25845,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.84193131023796</v>
+        <v>1.838829235169708</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.637807682473079</v>
@@ -26132,7 +25934,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.843724746191099</v>
+        <v>1.840298899157382</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.611849430646505</v>
@@ -26221,7 +26023,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.848899982792049</v>
+        <v>1.84446443398338</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.596879301092484</v>
@@ -26310,7 +26112,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.846113317097787</v>
+        <v>1.835076185997201</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.170531473187795</v>
@@ -26399,7 +26201,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.841826497578847</v>
+        <v>1.831235999400128</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.073292408182752</v>
@@ -26488,7 +26290,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.834134874038201</v>
+        <v>1.819934327150231</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.710374694103527</v>
@@ -26577,7 +26379,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.822943552502166</v>
+        <v>1.80662201501505</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.279020684539482</v>
@@ -26666,7 +26468,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.80625469160791</v>
+        <v>1.788891740226097</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.631599862804063</v>
@@ -26755,7 +26557,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.803147841367297</v>
+        <v>1.785676638561278</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.335214366010194</v>
@@ -26844,7 +26646,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.795829254405748</v>
+        <v>1.784890769656958</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.554875902434933</v>
@@ -26933,7 +26735,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.803958547630401</v>
+        <v>1.787436836118294</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.82802828785094</v>
@@ -27022,7 +26824,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.798427626359348</v>
+        <v>1.783062435172</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.61764017345978</v>
@@ -27111,7 +26913,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.795204796413762</v>
+        <v>1.774398717484078</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.210081014162281</v>
@@ -27200,7 +27002,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.807179810795847</v>
+        <v>1.781756906997987</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.606647256347797</v>
@@ -27289,7 +27091,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.794087905388455</v>
+        <v>1.767157644407555</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.406205194224478</v>
@@ -27378,7 +27180,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.793704982771634</v>
+        <v>1.763193725887842</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.012237121311134</v>
@@ -27467,7 +27269,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.781423267622358</v>
+        <v>1.747652672649077</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.829765716975032</v>
@@ -27556,7 +27358,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.785076380702199</v>
+        <v>1.748496693950981</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.157289414839003</v>
@@ -27645,7 +27447,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.783966043362491</v>
+        <v>1.743310833526126</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.935375501875806</v>
@@ -27734,7 +27536,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.780068438695582</v>
+        <v>1.738080182268668</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.576984464746401</v>
@@ -28020,7 +27822,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.695495371183307</v>
+        <v>1.693554871061593</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.803942950916363</v>
@@ -28109,7 +27911,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.7034535094127</v>
+        <v>1.700482533545427</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.365882234735887</v>
@@ -28198,7 +28000,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.71810266378813</v>
+        <v>1.71458339589989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.892405618577909</v>
@@ -28287,7 +28089,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.727230348133845</v>
+        <v>1.726714348112928</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.941469296360043</v>
@@ -28376,7 +28178,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.72820478092756</v>
+        <v>1.732113504759815</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.910139020287281</v>
@@ -28465,7 +28267,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.729837063449257</v>
+        <v>1.729201579613331</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.884177934057035</v>
@@ -28554,7 +28356,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.734185429645377</v>
+        <v>1.731725126624427</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.784334358738359</v>
@@ -28643,7 +28445,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.750274750978415</v>
+        <v>1.744765966251609</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.94226044286063</v>
@@ -28732,7 +28534,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.750042015073824</v>
+        <v>1.749049950727998</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.224084310752557</v>
@@ -28821,7 +28623,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763029991960555</v>
+        <v>1.759230048529436</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.944848952609923</v>
@@ -28910,7 +28712,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.776373493395117</v>
+        <v>1.774051771153585</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.188085741379622</v>
@@ -28999,7 +28801,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.779861516730524</v>
+        <v>1.77781417299866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.870949918102126</v>
@@ -29088,7 +28890,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.781832068396355</v>
+        <v>1.7776869578028</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.087044394801237</v>
@@ -29177,7 +28979,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.779835425688008</v>
+        <v>1.771778372817342</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.275164569471513</v>
@@ -29266,7 +29068,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.776528322383345</v>
+        <v>1.771106940013472</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.930048682920809</v>
@@ -29355,7 +29157,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.792746433069232</v>
+        <v>1.786350764012928</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.512379148745984</v>
@@ -29444,7 +29246,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.79351850995819</v>
+        <v>1.784503696660662</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.027395832532654</v>
@@ -29533,7 +29335,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.789121224578005</v>
+        <v>1.776495430108457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.86890185736516</v>
@@ -29622,7 +29424,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.785451901587722</v>
+        <v>1.773441156022351</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.018176918818718</v>
@@ -29711,7 +29513,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.789008906629702</v>
+        <v>1.775469860282722</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.631469413633484</v>
@@ -29800,7 +29602,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.791895054207425</v>
+        <v>1.780415501571115</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.324389640833576</v>
@@ -29889,7 +29691,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.793079964169931</v>
+        <v>1.787683576298828</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.183179821054335</v>
@@ -29978,7 +29780,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.797681102758771</v>
+        <v>1.79803569764378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.741389976312442</v>
@@ -30067,7 +29869,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.809230021871611</v>
+        <v>1.809441821179498</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.668888917403129</v>
@@ -30156,7 +29958,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.815399433790372</v>
+        <v>1.80920538408338</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.138929038235748</v>
@@ -30245,7 +30047,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.813973233438216</v>
+        <v>1.806492377526149</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.294241205284713</v>
@@ -30334,7 +30136,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.807878767725222</v>
+        <v>1.806844780799248</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.882846842773438</v>
@@ -30423,7 +30225,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.809117214123736</v>
+        <v>1.804888981925673</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.467922842861208</v>
@@ -30512,7 +30314,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.819328912112163</v>
+        <v>1.814993902457835</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.442400583298271</v>
@@ -30601,7 +30403,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.810721850184612</v>
+        <v>1.809170054573386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.924062077012614</v>
@@ -30690,7 +30492,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.812662040790026</v>
+        <v>1.813345265907514</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.524822036379871</v>
@@ -30779,7 +30581,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.811546703689625</v>
+        <v>1.812309679609861</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.165827640323768</v>
@@ -30868,7 +30670,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.821171820146031</v>
+        <v>1.818702428622582</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.693689054512437</v>
@@ -30957,7 +30759,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.831556091076672</v>
+        <v>1.828951113041338</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.738251975514892</v>
@@ -31046,7 +30848,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.841173729544151</v>
+        <v>1.841908159708545</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.23501346782212</v>
@@ -31135,7 +30937,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.848637246266975</v>
+        <v>1.849245741571808</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.867599156500812</v>
@@ -31224,7 +31026,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.843478849330991</v>
+        <v>1.842359696150977</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.877255907054951</v>
@@ -31313,7 +31115,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.841604684821458</v>
+        <v>1.838032176589434</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.316261302102371</v>
@@ -31402,7 +31204,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.839152693583065</v>
+        <v>1.832014106176426</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.258474529821452</v>
@@ -31491,7 +31293,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.840413094639035</v>
+        <v>1.830074052599677</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.323511557873015</v>
@@ -31580,7 +31382,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.840642817938918</v>
+        <v>1.818935176083406</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.365557519531591</v>
@@ -31669,7 +31471,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.836076769894517</v>
+        <v>1.8144013925848</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.123953219091814</v>
@@ -31758,7 +31560,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.846013432460215</v>
+        <v>1.827237755733776</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.176086415229954</v>
@@ -31847,7 +31649,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.850363277755205</v>
+        <v>1.829981924936039</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.631884974020339</v>
@@ -31936,7 +31738,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.858966448575329</v>
+        <v>1.835855311925386</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.802252252774828</v>
@@ -32025,7 +31827,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.84970347346756</v>
+        <v>1.818410496859211</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.631211151021631</v>
@@ -32114,7 +31916,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.855357272496549</v>
+        <v>1.825396332278255</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.114493089357014</v>
@@ -32203,7 +32005,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.851546140803784</v>
+        <v>1.823920328245984</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.63167284380724</v>
@@ -32292,7 +32094,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.847139965628448</v>
+        <v>1.820615212515798</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.226569659186616</v>
@@ -32381,7 +32183,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.840205264158118</v>
+        <v>1.814696461292091</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.083208967407834</v>
@@ -32470,7 +32272,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.840354503300945</v>
+        <v>1.81441748245692</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.290410096748066</v>
@@ -32559,7 +32361,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.846272543256368</v>
+        <v>1.822527984389258</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.058407504177544</v>
@@ -32648,7 +32450,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.847414815709695</v>
+        <v>1.823016763553303</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.431231382514003</v>
@@ -32737,7 +32539,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.848412077622864</v>
+        <v>1.8261333071094</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.098396150927923</v>
@@ -32826,7 +32628,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.850042181896103</v>
+        <v>1.837283288836451</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.149299906806933</v>
@@ -32915,7 +32717,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.858686847056924</v>
+        <v>1.854057799438616</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.974485006085033</v>
@@ -33004,7 +32806,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.867195143767832</v>
+        <v>1.862656670538924</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.820616278553029</v>
@@ -33093,7 +32895,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.86395606013318</v>
+        <v>1.856140535779325</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.970418596901961</v>
@@ -33182,7 +32984,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.861252561283745</v>
+        <v>1.855471922065171</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.729674797480641</v>
@@ -33271,7 +33073,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.85985046901991</v>
+        <v>1.852878353551598</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.86694583224924</v>
@@ -33360,7 +33162,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.862454220108602</v>
+        <v>1.864517631639026</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.80147355720626</v>
@@ -33449,7 +33251,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.854063587616592</v>
+        <v>1.850581449474638</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.749492208615895</v>
@@ -33538,7 +33340,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.845414588815781</v>
+        <v>1.84271504184315</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.866178823626233</v>
@@ -33627,7 +33429,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.830680674481363</v>
+        <v>1.826170172291454</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.344801010576986</v>
@@ -33716,7 +33518,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.810023221497763</v>
+        <v>1.805099262464859</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.093974202133854</v>
@@ -33805,7 +33607,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.798034512395933</v>
+        <v>1.78877012842999</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.417706396082507</v>
@@ -33894,7 +33696,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.789438259976432</v>
+        <v>1.774180612016488</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.290917360835884</v>
@@ -33983,7 +33785,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.792561977588738</v>
+        <v>1.777036957953384</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.902818330294289</v>
@@ -34072,7 +33874,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.793000974007317</v>
+        <v>1.771023474515738</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.100211403302459</v>
@@ -34161,7 +33963,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.797347713417605</v>
+        <v>1.770810264897263</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.820824131878113</v>
@@ -34250,7 +34052,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.785532333055278</v>
+        <v>1.756738241251361</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.067288155153109</v>
@@ -34339,7 +34141,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.777628999094508</v>
+        <v>1.745717091543316</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.982825518160829</v>
@@ -34428,7 +34230,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.771142669680334</v>
+        <v>1.736922803885928</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.825634124717532</v>
@@ -34517,7 +34319,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.768930589476467</v>
+        <v>1.733279003043429</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.908798397020576</v>
@@ -34606,7 +34408,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.765611748488571</v>
+        <v>1.726297137579364</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.129277916965693</v>
@@ -34695,7 +34497,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.75560120264366</v>
+        <v>1.713312981200035</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.053600809714906</v>
@@ -34981,7 +34783,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.55691295859587</v>
+        <v>1.531120340641742</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.056332826473033</v>
@@ -35070,7 +34872,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561811249597875</v>
+        <v>1.536622868827364</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.763570731749214</v>
@@ -35159,7 +34961,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5867533065921</v>
+        <v>1.557277526811366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.453771224895906</v>
@@ -35248,7 +35050,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602493983328685</v>
+        <v>1.570437438965711</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.850849501146214</v>
@@ -35337,7 +35139,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.612110084771123</v>
+        <v>1.576749302662163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.502919828930065</v>
@@ -35426,7 +35228,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.612191926576192</v>
+        <v>1.578438956958641</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.144471581107033</v>
@@ -35515,7 +35317,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610005192547264</v>
+        <v>1.576282539173112</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.120632611562428</v>
@@ -35604,7 +35406,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.626565195850889</v>
+        <v>1.594614705160011</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.75621233565238</v>
@@ -35693,7 +35495,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538954928734481</v>
+        <v>1.523786356194788</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.990762359347306</v>
@@ -35782,7 +35584,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.504921376713036</v>
+        <v>1.496599462503299</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.034023601664535</v>
@@ -35871,7 +35673,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.498680734905361</v>
+        <v>1.491140688003457</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.072565822624782</v>
@@ -35960,7 +35762,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504779625340734</v>
+        <v>1.498562204422192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.041135363865742</v>
@@ -36049,7 +35851,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505086943141398</v>
+        <v>1.50063035631906</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.98808687186402</v>
@@ -36138,7 +35940,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.507021736188036</v>
+        <v>1.500938224173124</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.028693083023744</v>
@@ -36227,7 +36029,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496148991021728</v>
+        <v>1.487579490974744</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.07803290169206</v>
@@ -36316,7 +36118,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.499191076586866</v>
+        <v>1.485792926887997</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.036179169932335</v>
@@ -36405,7 +36207,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.504139523325078</v>
+        <v>1.483361551928688</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.049099570558381</v>
@@ -36494,7 +36296,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491162699624681</v>
+        <v>1.471388459451025</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.072295608691627</v>
@@ -36583,7 +36385,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490620180262273</v>
+        <v>1.47443053829529</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.040849111248368</v>
@@ -36672,7 +36474,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.488953657309618</v>
+        <v>1.471845233223087</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.051036583022397</v>
@@ -36761,7 +36563,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.481719858626914</v>
+        <v>1.460646890032755</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.021099337277799</v>
@@ -36850,7 +36652,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.470307939633234</v>
+        <v>1.449069547493927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.034360716383107</v>
@@ -36939,7 +36741,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.469709486473212</v>
+        <v>1.452382293131315</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.066040781117173</v>
@@ -37028,7 +36830,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55707923706136</v>
+        <v>1.523589839596627</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.996655867734047</v>
@@ -37117,7 +36919,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.593016542497441</v>
+        <v>1.558061981029872</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.65843828692141</v>
@@ -37206,7 +37008,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598498603328841</v>
+        <v>1.567677139413129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.835306248093797</v>
@@ -37295,7 +37097,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575944512961325</v>
+        <v>1.545492492055858</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.863800818392898</v>
@@ -37384,7 +37186,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565676791549683</v>
+        <v>1.536719790199828</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.908832950826301</v>
@@ -37473,7 +37275,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56055570535441</v>
+        <v>1.5307635889012</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.667750114063661</v>
@@ -37562,7 +37364,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560879538335081</v>
+        <v>1.537483602190167</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.867777083683574</v>
@@ -37651,7 +37453,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.552217473887726</v>
+        <v>1.535692536165475</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.93750415038074</v>
@@ -37740,7 +37542,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551734630139747</v>
+        <v>1.538484861017718</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.715131958037644</v>
@@ -37829,7 +37631,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.544606613785422</v>
+        <v>1.537947878302693</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.930747276051096</v>
@@ -37918,7 +37720,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.546314842381322</v>
+        <v>1.541444927021099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.011957948915705</v>
@@ -38007,7 +37809,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551842199590311</v>
+        <v>1.548268028686358</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.139289714222894</v>
@@ -38096,7 +37898,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548406116023552</v>
+        <v>1.548659976905064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.771367725767145</v>
@@ -38185,7 +37987,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.559161635073372</v>
+        <v>1.56189652666207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.699491984721154</v>
@@ -38274,7 +38076,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.546064746176178</v>
+        <v>1.543648259488807</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.69526065703912</v>
@@ -38363,7 +38165,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534667000519504</v>
+        <v>1.533216552727768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.985529774198663</v>
@@ -38452,7 +38254,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.514317809324974</v>
+        <v>1.50953659428252</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.69465073518506</v>
@@ -38541,7 +38343,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.520030229387614</v>
+        <v>1.515189570216638</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.409342793200144</v>
@@ -38630,7 +38432,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.51136482196383</v>
+        <v>1.502854170804373</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.850624922500099</v>
@@ -38719,7 +38521,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.516940140038771</v>
+        <v>1.511542216468269</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.77289518441474</v>
@@ -38808,7 +38610,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489516073967475</v>
+        <v>1.483855894596773</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.705012650300985</v>
@@ -38897,7 +38699,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.487802507821714</v>
+        <v>1.485116469475056</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.731761950774769</v>
@@ -38986,7 +38788,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.45940063490345</v>
+        <v>1.458876740729205</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.748006729624584</v>
@@ -39075,7 +38877,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45417137662099</v>
+        <v>1.457501879595863</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.505906987774653</v>
@@ -39164,7 +38966,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.459630438674204</v>
+        <v>1.456331469014483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.708148876647777</v>
@@ -39253,7 +39055,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.44324513652543</v>
+        <v>1.444961856461944</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.585511864310299</v>
@@ -39342,7 +39144,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.436417925242054</v>
+        <v>1.438097252328867</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.565282186509613</v>
@@ -39431,7 +39233,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.450853574896778</v>
+        <v>1.449173693927158</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.745639362524134</v>
@@ -39520,7 +39322,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.449844505800196</v>
+        <v>1.446893560707568</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.687427583182357</v>
@@ -39609,7 +39411,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.450566609581584</v>
+        <v>1.450180976087267</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.685573393342128</v>
@@ -39698,7 +39500,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.458713003910937</v>
+        <v>1.45908151222907</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.581852860425369</v>
@@ -39787,7 +39589,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.449968994134068</v>
+        <v>1.454117672393902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.657671207022741</v>
@@ -39876,7 +39678,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.441942729038894</v>
+        <v>1.451091677067191</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.557013339545238</v>
@@ -39965,7 +39767,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.441272610560353</v>
+        <v>1.449538110354719</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.541444540445759</v>
@@ -40054,7 +39856,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.414945786706371</v>
+        <v>1.423859751820407</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.542725137502606</v>
@@ -40143,7 +39945,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.443476719553433</v>
+        <v>1.45588357543943</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.604311280517616</v>
@@ -40232,7 +40034,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.44404894872182</v>
+        <v>1.457866497584912</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.362093759788601</v>
@@ -40321,7 +40123,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.463670629149754</v>
+        <v>1.470896820721223</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.360780974859551</v>
@@ -40410,7 +40212,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.42998023134259</v>
+        <v>1.434226158950963</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.361677989864914</v>
@@ -40499,7 +40301,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.441889436716605</v>
+        <v>1.443932054618142</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.140419563848921</v>
@@ -40588,7 +40390,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.435006734367188</v>
+        <v>1.436711235168725</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.309763914388185</v>
@@ -40677,7 +40479,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.438601282292886</v>
+        <v>1.438664478471062</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.327310481801385</v>
@@ -40766,7 +40568,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.407706785559083</v>
+        <v>1.407602138690525</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.323088977996775</v>
@@ -40855,7 +40657,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.401767585886543</v>
+        <v>1.40291466508737</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.337220505290118</v>
@@ -40944,7 +40746,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.389956504815064</v>
+        <v>1.388664849285164</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.372268965143376</v>
@@ -41033,7 +40835,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.368383188899342</v>
+        <v>1.368876634056868</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.300133303257114</v>
@@ -41122,7 +40924,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.380023548360099</v>
+        <v>1.380895692313304</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.309444499050504</v>
@@ -41211,7 +41013,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.379327689577276</v>
+        <v>1.364782155243983</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.309980327291059</v>
@@ -41300,7 +41102,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.371495132821493</v>
+        <v>1.368672282054364</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.260353706915924</v>
@@ -41389,7 +41191,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.382910617412539</v>
+        <v>1.375408095026754</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.287083163877528</v>
@@ -41478,7 +41280,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.358926370455621</v>
+        <v>1.349587943553538</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.388019475352209</v>
@@ -41567,7 +41369,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.360853410750877</v>
+        <v>1.353849063228643</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.290315091790819</v>
@@ -41656,7 +41458,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.372973166577329</v>
+        <v>1.366645873984206</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.199813764015879</v>
@@ -41942,7 +41744,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.437215969121856</v>
+        <v>1.470777052483368</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.528443739259191</v>
@@ -42031,7 +41833,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468623353279622</v>
+        <v>1.507116387438014</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.338151290993658</v>
@@ -42120,7 +41922,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.481936709273687</v>
+        <v>1.520899351830814</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.417915145907926</v>
@@ -42209,7 +42011,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.497558171853156</v>
+        <v>1.539057862917541</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.508073333629122</v>
@@ -42298,7 +42100,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476360429315303</v>
+        <v>1.516174398633158</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.300845856973535</v>
@@ -42387,7 +42189,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.535361995272569</v>
+        <v>1.575934471179762</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45751934963675</v>
@@ -42476,7 +42278,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.55809783748207</v>
+        <v>1.607597543494617</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.397102048207663</v>
@@ -42565,7 +42367,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569996182536841</v>
+        <v>1.622730719752851</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.460701591215086</v>
@@ -42654,7 +42456,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548458503138877</v>
+        <v>1.603620888184983</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.455552076777478</v>
@@ -42743,7 +42545,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.548425162226801</v>
+        <v>1.602391592447916</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.508483310619351</v>
@@ -42832,7 +42634,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.54827525754257</v>
+        <v>1.604031734211051</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.592180659761062</v>
@@ -42921,7 +42723,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546047924915398</v>
+        <v>1.601853910857896</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.502966046379239</v>
@@ -43010,7 +42812,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595720542814455</v>
+        <v>1.650754168559263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.43583871869185</v>
@@ -43099,7 +42901,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.602490203800005</v>
+        <v>1.651618633965533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.629545558609134</v>
@@ -43188,7 +42990,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555941754956679</v>
+        <v>1.604509240911868</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.589934387811124</v>
@@ -43277,7 +43079,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556457368332983</v>
+        <v>1.60320417724696</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.505620096912827</v>
@@ -43366,7 +43168,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.553428238367421</v>
+        <v>1.599477947025344</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.540753713096468</v>
@@ -43455,7 +43257,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540556172108572</v>
+        <v>1.582815917241813</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.447425626663112</v>
@@ -43544,7 +43346,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.529772603278489</v>
+        <v>1.576760343652796</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.437680737956117</v>
@@ -43633,7 +43435,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556220983178137</v>
+        <v>1.607002661592695</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.470735018209069</v>
@@ -43722,7 +43524,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.546652673068727</v>
+        <v>1.596653079598914</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.297390215687861</v>
@@ -43811,7 +43613,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544472507019973</v>
+        <v>1.587237717746204</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.535316026046643</v>
@@ -43900,7 +43702,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.534371829709885</v>
+        <v>1.584031147026872</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.564111633568813</v>
@@ -43989,7 +43791,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.54307276292954</v>
+        <v>1.591425932657617</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.646186644981951</v>
@@ -44078,7 +43880,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563753887875585</v>
+        <v>1.614319058807989</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.633214185555387</v>
@@ -44167,7 +43969,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554328862058365</v>
+        <v>1.587742238724586</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.292770335315749</v>
@@ -44256,7 +44058,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543976669456655</v>
+        <v>1.592597106014654</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.50038472257409</v>
@@ -44345,7 +44147,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524791030754306</v>
+        <v>1.570874208209616</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.548828550307857</v>
@@ -44434,7 +44236,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54394184059039</v>
+        <v>1.596521844497239</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.367096862616434</v>
@@ -44523,7 +44325,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.549868332046491</v>
+        <v>1.603252255727061</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.464357530542562</v>
@@ -44612,7 +44414,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.563213837990312</v>
+        <v>1.618317837555896</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.410074990034728</v>
@@ -44701,7 +44503,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565952139028948</v>
+        <v>1.621153023679805</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.570289490749458</v>
@@ -44790,7 +44592,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588290979503649</v>
+        <v>1.643678951870984</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.558342787585858</v>
@@ -44879,7 +44681,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59281087001086</v>
+        <v>1.645924886971726</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.607504636675132</v>
@@ -44968,7 +44770,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606796196872832</v>
+        <v>1.657879593133842</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.546333976491192</v>
@@ -45057,7 +44859,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626723538218992</v>
+        <v>1.680412134666351</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.49640987755362</v>
@@ -45146,7 +44948,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636429880364503</v>
+        <v>1.68483116628375</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.367733464215962</v>
@@ -45235,7 +45037,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.602280371860305</v>
+        <v>1.642508739025795</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.502129000568776</v>
@@ -45324,7 +45126,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557501274911342</v>
+        <v>1.601513514676522</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.453144703148552</v>
@@ -45413,7 +45215,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.51704992729517</v>
+        <v>1.56120046173467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.51312585235189</v>
@@ -45502,7 +45304,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535202282571237</v>
+        <v>1.580412571467468</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.439267525975635</v>
@@ -45591,7 +45393,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540227567172057</v>
+        <v>1.587007939937546</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.635569308960612</v>
@@ -45680,7 +45482,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564481274953115</v>
+        <v>1.613585124029006</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.514245527748076</v>
@@ -45769,7 +45571,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546119200095114</v>
+        <v>1.590704086901948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.292993269462806</v>
@@ -45858,7 +45660,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.546889324051132</v>
+        <v>1.593808750858576</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.571837348942873</v>
@@ -45947,7 +45749,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554450405309087</v>
+        <v>1.599398814272739</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.719621620813775</v>
@@ -46036,7 +45838,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53654230307735</v>
+        <v>1.583492550211756</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.737221099942135</v>
@@ -46125,7 +45927,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.538293122213437</v>
+        <v>1.586736512988046</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.700116081927104</v>
@@ -46214,7 +46016,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.560862703180024</v>
+        <v>1.611430658840068</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.447043917022345</v>
@@ -46303,7 +46105,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.538334018098345</v>
+        <v>1.586234543806522</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.592824280806745</v>
@@ -46392,7 +46194,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.539288520436498</v>
+        <v>1.586651664594733</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.791787051635207</v>
@@ -46481,7 +46283,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548916985461025</v>
+        <v>1.598702946941192</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.546138882275192</v>
@@ -46570,7 +46372,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.587747452448593</v>
+        <v>1.63466979831031</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.702421483985948</v>
@@ -46659,7 +46461,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641097696402162</v>
+        <v>1.689004935280032</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.455670264281465</v>
@@ -46748,7 +46550,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.635518581066027</v>
+        <v>1.68387365744135</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.571192857638671</v>
@@ -46837,7 +46639,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.658690820467931</v>
+        <v>1.707823547983584</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.67411531575698</v>
@@ -46926,7 +46728,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662364894670061</v>
+        <v>1.711256234926939</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.753337282572577</v>
@@ -47015,7 +46817,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.663751979289143</v>
+        <v>1.710363443016855</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.683567323612017</v>
@@ -47104,7 +46906,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.690927689614101</v>
+        <v>1.73889675858008</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.65441548772445</v>
@@ -47193,7 +46995,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.701477830682628</v>
+        <v>1.743295371928423</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.549371175457487</v>
@@ -47282,7 +47084,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710355999747438</v>
+        <v>1.753449817143172</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.675763428383936</v>
@@ -47371,7 +47173,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.693800371888427</v>
+        <v>1.731987813699746</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.666900599217109</v>
@@ -47460,7 +47262,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.666975652416077</v>
+        <v>1.699913101771812</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.641546312466431</v>
@@ -47549,7 +47351,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.623031201498172</v>
+        <v>1.65450560100633</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.4518792617428</v>
@@ -47638,7 +47440,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.589332991219424</v>
+        <v>1.62042971862152</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.70387804894185</v>
@@ -47727,7 +47529,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.580730607000266</v>
+        <v>1.60856885716432</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.771422972865491</v>
@@ -47816,7 +47618,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.584530035300354</v>
+        <v>1.609314566903742</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.760556610177078</v>
@@ -47905,7 +47707,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.578050910276407</v>
+        <v>1.603906489508108</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.767907023520493</v>
@@ -47994,7 +47796,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.579110949214569</v>
+        <v>1.602431184858065</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.713806509419314</v>
@@ -48083,7 +47885,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.626336630232067</v>
+        <v>1.646294923879391</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.668804926276333</v>
@@ -48172,7 +47974,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.579491523143843</v>
+        <v>1.596404774279566</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.809096777431327</v>
@@ -48261,7 +48063,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.573558634692513</v>
+        <v>1.586248107227977</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.695686676460254</v>
@@ -48350,7 +48152,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.568075000109814</v>
+        <v>1.578495166383216</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.66931931959474</v>
@@ -48439,7 +48241,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.565797698416271</v>
+        <v>1.571712429706914</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.559794879918241</v>
@@ -48528,7 +48330,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.560464258236782</v>
+        <v>1.562168651610961</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.63168174317087</v>
@@ -48617,7 +48419,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.555053878017014</v>
+        <v>1.555267723582444</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.69261761718532</v>
